--- a/GuildManager2d/CSV/item_license.xlsx
+++ b/GuildManager2d/CSV/item_license.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MedievalStoreManager\GuildManager2d\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AEFA5F-3F38-40AD-9E73-2E7602049796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{21168A23-9905-4487-A640-8F5B31FD9890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="3460" windowWidth="19420" windowHeight="10560" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="10845" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
   </bookViews>
   <sheets>
-    <sheet name="shop_item" sheetId="1" r:id="rId1"/>
+    <sheet name="item_license" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>22</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>17</v>
@@ -1148,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -1169,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>20</v>
@@ -1190,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -1211,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="5">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -1232,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="5">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
